--- a/config_2.9/freestyle_nor_qhb_manager_config.xlsx
+++ b/config_2.9/freestyle_nor_qhb_manager_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="947" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="947"/>
   </bookViews>
   <sheets>
     <sheet name="main|总配置" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
   <si>
     <t>id|行号</t>
   </si>
@@ -428,6 +428,10 @@
   </si>
   <si>
     <t>28,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -930,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1004,7 +1008,9 @@
       <c r="H2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="17"/>
+      <c r="I2" s="17" t="s">
+        <v>73</v>
+      </c>
       <c r="J2" s="20">
         <v>0.2</v>
       </c>
@@ -1574,7 +1580,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6546,7 +6552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
